--- a/biology/Zoologie/Charaxes_antiquus/Charaxes_antiquus.xlsx
+++ b/biology/Zoologie/Charaxes_antiquus/Charaxes_antiquus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes antiquus est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des  Charaxinae et au genre Charaxes.
 </t>
@@ -511,11 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes antiquus a été nommé par James John Joicey et George Talbot en 1926.
-Synonyme : Charaxes brutus antiquus Joicey &amp; Talbot, 1926[1];
-Noms vernaculaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes antiquus a été nommé par James John Joicey et George Talbot en 1926.
+Synonyme : Charaxes brutus antiquus Joicey &amp; Talbot, 1926;
+</t>
         </is>
       </c>
     </row>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Charaxes antiquus est un grand papillon au dessus marron avec deux queues aux ailes postérieures et une bande discale de couleur blanc-cassé, effilée sur l'aile antérieure. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes antiquus est un grand papillon au dessus marron avec deux queues aux ailes postérieures et une bande discale de couleur blanc-cassé, effilée sur l'aile antérieure. 
 Le dimorphisme sexuel est faible, la femelle (100 mm d'envergure) étant simplement plus grande que le mâle (75 à 80 mm) et légèrement plus claire.
-Chenille</t>
+</t>
         </is>
       </c>
     </row>
@@ -575,10 +591,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sa biologie est mal connue. C'est un adepte du hill-topping. 
-Plantes hôtes</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue. C'est un adepte du hill-topping. 
+</t>
         </is>
       </c>
     </row>
@@ -606,12 +624,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est uniquement présent dans le golfe de Guinée. C’est une espèce rare et endémique de l'île de Sao Tomé dans le Golfe de Guinée.
-Biotope
-Il réside en lisière de forêt.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement présent dans le golfe de Guinée. C’est une espèce rare et endémique de l'île de Sao Tomé dans le Golfe de Guinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_antiquus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_antiquus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en lisière de forêt.
+</t>
         </is>
       </c>
     </row>
